--- a/dtpu_configurations/only_integer16/50mhz/mxu_18x18/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_18x18/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.029615042731165886</v>
+        <v>0.03140789642930031</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.013424010947346687</v>
+        <v>0.016744256019592285</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.008258863352239132</v>
+        <v>0.00962611474096775</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.004546351730823517</v>
+        <v>0.004523232579231262</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>3.5629532067105174E-4</v>
+        <v>5.770409479737282E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>7.771030650474131E-4</v>
+        <v>7.732643280178308E-4</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>9.700000518932939E-4</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12750522792339325</v>
+        <v>0.12755978107452393</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4442827701568604</v>
+        <v>1.4510115385055542</v>
       </c>
     </row>
   </sheetData>
